--- a/import/prep/excel_original_receipt/65-1ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ สค64 (1-31ตค64).xlsx
+++ b/import/prep/excel_original_receipt/65-1ทะเบียนคุมใบแจ้งหนี้ใบเสร็จ สค64 (1-31ตค64).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2" conformance="strict">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr dateCompatibility="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/atitayasamaset/Detail/WMA/Excel(billing)/excel (TEST)/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/thansitar/Downloads/excel_original_receipt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{F1F3FE39-B6D8-514B-86E3-69A886FBAE98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:9_{B2DD18CF-445A-3344-B8A7-3F2917CF9D7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20" yWindow="500" windowWidth="28800" windowHeight="16440" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="type2" sheetId="1" r:id="rId1"/>
@@ -11581,6 +11581,36 @@
     <xf numFmtId="165" fontId="14" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -11596,46 +11626,16 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="3" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="9" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="10" fillId="0" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="11" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -64378,8 +64378,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:AB259"/>
   <sheetViews>
-    <sheetView topLeftCell="D222" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R182" sqref="R182"/>
+    <sheetView tabSelected="1" topLeftCell="D230" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F252" sqref="F252"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -64409,25 +64409,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:22" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.5">
-      <c r="A1" s="204" t="s">
+      <c r="A1" s="214" t="s">
         <v>3180</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
-      <c r="E1" s="204"/>
-      <c r="F1" s="204"/>
-      <c r="G1" s="204"/>
-      <c r="H1" s="204"/>
-      <c r="I1" s="204"/>
-      <c r="J1" s="204"/>
-      <c r="K1" s="204"/>
-      <c r="L1" s="204"/>
-      <c r="M1" s="204"/>
-      <c r="N1" s="204"/>
-      <c r="O1" s="204"/>
-      <c r="P1" s="204"/>
-      <c r="Q1" s="204"/>
+      <c r="B1" s="214"/>
+      <c r="C1" s="214"/>
+      <c r="D1" s="214"/>
+      <c r="E1" s="214"/>
+      <c r="F1" s="214"/>
+      <c r="G1" s="214"/>
+      <c r="H1" s="214"/>
+      <c r="I1" s="214"/>
+      <c r="J1" s="214"/>
+      <c r="K1" s="214"/>
+      <c r="L1" s="214"/>
+      <c r="M1" s="214"/>
+      <c r="N1" s="214"/>
+      <c r="O1" s="214"/>
+      <c r="P1" s="214"/>
+      <c r="Q1" s="214"/>
       <c r="R1" s="24"/>
       <c r="S1" s="111"/>
       <c r="T1" s="111"/>
@@ -64461,19 +64461,19 @@
       <c r="V2" s="9"/>
     </row>
     <row r="3" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="215" t="s">
         <v>2856</v>
       </c>
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="215" t="s">
         <v>2857</v>
       </c>
-      <c r="C3" s="205" t="s">
+      <c r="C3" s="215" t="s">
         <v>2858</v>
       </c>
-      <c r="D3" s="206" t="s">
+      <c r="D3" s="216" t="s">
         <v>2859</v>
       </c>
-      <c r="E3" s="205" t="s">
+      <c r="E3" s="215" t="s">
         <v>2860</v>
       </c>
       <c r="F3" s="198" t="s">
@@ -64485,74 +64485,74 @@
       <c r="H3" s="198" t="s">
         <v>2889</v>
       </c>
-      <c r="I3" s="207" t="s">
+      <c r="I3" s="217" t="s">
         <v>2862</v>
       </c>
       <c r="J3" s="112"/>
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="208" t="s">
         <v>2863</v>
       </c>
-      <c r="L3" s="216" t="s">
+      <c r="L3" s="219" t="s">
         <v>2864</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="209" t="s">
+      <c r="N3" s="208" t="s">
         <v>2865</v>
       </c>
-      <c r="O3" s="209" t="s">
+      <c r="O3" s="208" t="s">
         <v>2866</v>
       </c>
       <c r="P3" s="109" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="212" t="s">
+      <c r="Q3" s="210" t="s">
         <v>2867</v>
       </c>
-      <c r="R3" s="214" t="s">
+      <c r="R3" s="212" t="s">
         <v>708</v>
       </c>
-      <c r="S3" s="218">
+      <c r="S3" s="204">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="219" t="s">
+      <c r="T3" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="220" t="s">
+      <c r="U3" s="206" t="s">
         <v>2867</v>
       </c>
-      <c r="V3" s="211" t="s">
+      <c r="V3" s="207" t="s">
         <v>2868</v>
       </c>
     </row>
     <row r="4" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="205"/>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="205"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="199"/>
       <c r="G4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="199"/>
-      <c r="I4" s="208"/>
+      <c r="I4" s="218"/>
       <c r="J4" s="113"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
       <c r="P4" s="110" t="s">
         <v>398</v>
       </c>
-      <c r="Q4" s="213"/>
-      <c r="R4" s="215"/>
-      <c r="S4" s="218"/>
-      <c r="T4" s="219"/>
-      <c r="U4" s="220"/>
-      <c r="V4" s="211"/>
+      <c r="Q4" s="211"/>
+      <c r="R4" s="213"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="206"/>
+      <c r="V4" s="207"/>
     </row>
     <row r="5" spans="1:22" x14ac:dyDescent="0.4">
       <c r="A5" s="16">
@@ -79966,15 +79966,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="S3:S4"/>
-    <mergeCell ref="T3:T4"/>
-    <mergeCell ref="U3:U4"/>
-    <mergeCell ref="V3:V4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="N3:N4"/>
-    <mergeCell ref="O3:O4"/>
-    <mergeCell ref="Q3:Q4"/>
-    <mergeCell ref="R3:R4"/>
     <mergeCell ref="A1:Q1"/>
     <mergeCell ref="A3:A4"/>
     <mergeCell ref="B3:B4"/>
@@ -79986,6 +79977,15 @@
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="K3:K4"/>
     <mergeCell ref="L3:L4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="T3:T4"/>
+    <mergeCell ref="U3:U4"/>
+    <mergeCell ref="V3:V4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="N3:N4"/>
+    <mergeCell ref="O3:O4"/>
+    <mergeCell ref="Q3:Q4"/>
+    <mergeCell ref="R3:R4"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -79996,8 +79996,8 @@
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AA97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G67" sqref="G67"/>
+    <sheetView topLeftCell="A66" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F92" sqref="F92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="24" x14ac:dyDescent="0.4"/>
@@ -80082,19 +80082,19 @@
       <c r="Z2" s="9"/>
     </row>
     <row r="3" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A3" s="205" t="s">
+      <c r="A3" s="215" t="s">
         <v>2856</v>
       </c>
-      <c r="B3" s="205" t="s">
+      <c r="B3" s="215" t="s">
         <v>2857</v>
       </c>
-      <c r="C3" s="205" t="s">
+      <c r="C3" s="215" t="s">
         <v>2858</v>
       </c>
-      <c r="D3" s="206" t="s">
+      <c r="D3" s="216" t="s">
         <v>2859</v>
       </c>
-      <c r="E3" s="205" t="s">
+      <c r="E3" s="215" t="s">
         <v>2860</v>
       </c>
       <c r="F3" s="198" t="s">
@@ -80106,75 +80106,75 @@
       <c r="H3" s="198" t="s">
         <v>2873</v>
       </c>
-      <c r="I3" s="207" t="s">
+      <c r="I3" s="217" t="s">
         <v>2862</v>
       </c>
       <c r="J3" s="184"/>
-      <c r="K3" s="209" t="s">
+      <c r="K3" s="208" t="s">
         <v>2863</v>
       </c>
-      <c r="L3" s="216" t="s">
+      <c r="L3" s="219" t="s">
         <v>2864</v>
       </c>
-      <c r="M3" s="209" t="s">
+      <c r="M3" s="208" t="s">
         <v>7</v>
       </c>
-      <c r="N3" s="209" t="s">
+      <c r="N3" s="208" t="s">
         <v>2865</v>
       </c>
-      <c r="O3" s="209" t="s">
+      <c r="O3" s="208" t="s">
         <v>2866</v>
       </c>
       <c r="P3" s="186" t="s">
         <v>6</v>
       </c>
-      <c r="Q3" s="212" t="s">
+      <c r="Q3" s="210" t="s">
         <v>2867</v>
       </c>
-      <c r="R3" s="221" t="s">
+      <c r="R3" s="222" t="s">
         <v>708</v>
       </c>
-      <c r="S3" s="218">
+      <c r="S3" s="204">
         <v>7.0000000000000007E-2</v>
       </c>
-      <c r="T3" s="219" t="s">
+      <c r="T3" s="205" t="s">
         <v>6</v>
       </c>
-      <c r="U3" s="220" t="s">
+      <c r="U3" s="206" t="s">
         <v>2867</v>
       </c>
-      <c r="V3" s="211" t="s">
+      <c r="V3" s="207" t="s">
         <v>2868</v>
       </c>
       <c r="Z3" s="9"/>
     </row>
     <row r="4" spans="1:26" s="1" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="205"/>
-      <c r="B4" s="205"/>
-      <c r="C4" s="205"/>
-      <c r="D4" s="206"/>
-      <c r="E4" s="205"/>
+      <c r="A4" s="215"/>
+      <c r="B4" s="215"/>
+      <c r="C4" s="215"/>
+      <c r="D4" s="216"/>
+      <c r="E4" s="215"/>
       <c r="F4" s="199"/>
       <c r="G4" s="30" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="199"/>
-      <c r="I4" s="208"/>
+      <c r="I4" s="218"/>
       <c r="J4" s="185"/>
-      <c r="K4" s="210"/>
-      <c r="L4" s="217"/>
-      <c r="M4" s="210"/>
-      <c r="N4" s="210"/>
-      <c r="O4" s="210"/>
+      <c r="K4" s="209"/>
+      <c r="L4" s="220"/>
+      <c r="M4" s="209"/>
+      <c r="N4" s="209"/>
+      <c r="O4" s="209"/>
       <c r="P4" s="187" t="s">
         <v>398</v>
       </c>
-      <c r="Q4" s="222"/>
-      <c r="R4" s="221"/>
-      <c r="S4" s="218"/>
-      <c r="T4" s="219"/>
-      <c r="U4" s="220"/>
-      <c r="V4" s="211"/>
+      <c r="Q4" s="221"/>
+      <c r="R4" s="222"/>
+      <c r="S4" s="204"/>
+      <c r="T4" s="205"/>
+      <c r="U4" s="206"/>
+      <c r="V4" s="207"/>
       <c r="Z4" s="9"/>
     </row>
     <row r="5" spans="1:26" ht="24" customHeight="1" x14ac:dyDescent="0.4">
@@ -85352,12 +85352,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A1:Q1"/>
-    <mergeCell ref="A3:A4"/>
-    <mergeCell ref="B3:B4"/>
-    <mergeCell ref="C3:C4"/>
-    <mergeCell ref="D3:D4"/>
-    <mergeCell ref="F3:F4"/>
     <mergeCell ref="V3:V4"/>
     <mergeCell ref="L3:L4"/>
     <mergeCell ref="M3:M4"/>
@@ -85367,8 +85361,14 @@
     <mergeCell ref="Q3:Q4"/>
     <mergeCell ref="U3:U4"/>
     <mergeCell ref="R3:R4"/>
+    <mergeCell ref="S3:S4"/>
+    <mergeCell ref="A1:Q1"/>
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="D3:D4"/>
+    <mergeCell ref="F3:F4"/>
     <mergeCell ref="E3:E4"/>
-    <mergeCell ref="S3:S4"/>
     <mergeCell ref="I3:I4"/>
     <mergeCell ref="H3:H4"/>
     <mergeCell ref="K3:K4"/>
